--- a/biology/Zoologie/Geogale_aurita/Geogale_aurita.xlsx
+++ b/biology/Zoologie/Geogale_aurita/Geogale_aurita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Géogale[1] (Geogale aurita) est une espèce de Tenrecidae de Madagascar. C'est la seule espèce connue du genre Geogale et de la sous-famille des Geogalinae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Géogale (Geogale aurita) est une espèce de Tenrecidae de Madagascar. C'est la seule espèce connue du genre Geogale et de la sous-famille des Geogalinae.
 Cette espèce se rencontre dans les forêts sèches de l'ouest. Elle possède une longue queue et de grandes oreilles qu'elle utilise pour localiser le son des termites qui constituent la base de son alimentation. Au repos elles sont repliées en arrière le long du corps.
 Les géogales sont difficiles à observer dans la nature et leur comportement est assez mal connu.
 </t>
